--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2037976.192081803</v>
+        <v>2142155.826532874</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>39.32117841962513</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>129.4714269367844</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>94.93823639100921</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -871,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>89.61172450801205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>314.099449359203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>61.31988685654797</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1105,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>96.01060033221076</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.96411613815231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>148.4399041872979</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>111.4702381038687</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>187.8815889145677</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>231.8024250384307</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>31.26260713376152</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631857009</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704672978</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.95900124023849</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9367233701362</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>72.26558381699969</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>66.24118421664247</v>
       </c>
       <c r="H22" t="n">
-        <v>114.2821160880066</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699773</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>73.74785292486213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>15.09910835322263</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,13 +2851,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>36.74735985928049</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>71.22475183605047</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>111.5056986361892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>70.58974991479201</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>92.4155229904888</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>90.00079239153429</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>174.6859374605332</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>108.3106907504111</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>213.5398874823013</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2342.888901953459</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1973.926385013047</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1615.660686406297</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1229.872433808053</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>818.8865290184451</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>403.8140788634416</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>106.2304784722088</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>3084.535934008201</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2729.488742017581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,49 +4412,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>754.9746608886195</v>
+        <v>720.5449729949386</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>720.5449729949386</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4519,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1044.39183092558</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>754.9746608886195</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X4" t="n">
-        <v>754.9746608886195</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y4" t="n">
-        <v>754.9746608886195</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2438.534757724422</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2438.534757724422</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.5406302391191</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1005.010447216633</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>777.020896318616</v>
       </c>
       <c r="Y7" t="n">
-        <v>331.5406302391191</v>
+        <v>777.020896318616</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3065.37585597738</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3065.37585597738</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2734.312968633809</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.544313363695</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622425</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1647.684708104033</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1425.918092673559</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1136.815225799203</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1136.815225799203</v>
+        <v>1314.217360296482</v>
       </c>
       <c r="W10" t="n">
-        <v>847.3980557622425</v>
+        <v>1024.800190259521</v>
       </c>
       <c r="X10" t="n">
-        <v>847.3980557622425</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3980557622425</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828444</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429849</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578648</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000629</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>265.7901116201561</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>124.0782804623542</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5555,10 +5557,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080347</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770282</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491214</v>
+        <v>920.6398131926237</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367856</v>
+        <v>770.5231737802879</v>
       </c>
       <c r="E19" t="n">
-        <v>484.2179484367856</v>
+        <v>622.6100801978948</v>
       </c>
       <c r="F19" t="n">
-        <v>484.2179484367856</v>
+        <v>475.7201326999844</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>308.5240334148644</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>166.8122022570625</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510505</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648815</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750798</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.919235607268</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>2991.228530604269</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300683</v>
+        <v>2841.111891191933</v>
       </c>
       <c r="E22" t="n">
-        <v>376.4492432300683</v>
+        <v>2693.19879760954</v>
       </c>
       <c r="F22" t="n">
-        <v>376.4492432300683</v>
+        <v>2546.308850111629</v>
       </c>
       <c r="G22" t="n">
-        <v>209.2531439449482</v>
+        <v>2479.398563024112</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.68673186631</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.68673186631</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296634</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822172</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998113</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729147</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389156</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098141</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671699</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5968,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>197.0043242297671</v>
       </c>
       <c r="F25" t="n">
-        <v>296.7882229101285</v>
+        <v>197.0043242297671</v>
       </c>
       <c r="G25" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038299</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797701</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>878.3568999154069</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>709.4207169875</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="D28" t="n">
-        <v>559.3040775751642</v>
+        <v>653.1541313646966</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>505.2410377823035</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>358.3510902843931</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>191.154990999273</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3267.591475357736</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>3098.655292429829</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>2948.538653017493</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>2800.6255594351</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.33114932884</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122953</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085993</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187976</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3449.239940187976</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,16 +6718,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6771,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
         <v>1577.52840832642</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2977.325134535462</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>2864.693115711029</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>2714.576476298693</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>2566.6633827163</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>2419.77343521839</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.77343521839</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.932614305899</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650097</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.17289944421</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.755729407249</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3379.766178509232</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>3158.973599365702</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E37" t="n">
-        <v>414.4022433768874</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>414.4022433768874</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>247.2061440917674</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2103.713532365861</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1814.638305710059</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7269,7 +7271,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D40" t="n">
-        <v>580.8993044876688</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>580.8993044876688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>434.0093569897584</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>266.8132577046384</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7366,16 +7368,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558404</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630497</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D43" t="n">
-        <v>2588.787486630497</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2588.787486630497</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2588.787486630497</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2421.591387345377</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430191</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532174</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388644</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,22 +7733,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
   </sheetData>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891697</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194638</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>51.30683507832703</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5874149221326377</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.000252501565825</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.28295407562638</v>
       </c>
       <c r="H22" t="n">
-        <v>26.01259675821727</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372229157</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>45.8481303472993</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>72.68610972170704</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>125.1956044930012</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.19629618688077</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>55.74112246243864</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>69.70496293143188</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>124.9899273367995</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>50.2939204546896</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>77.45170586329479</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>38.59775584152675</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174902</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174902</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516056</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551177</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,34 +26420,34 @@
         <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26454,10 +26456,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905497</v>
+        <v>-932997.3580905501</v>
       </c>
       <c r="C6" t="n">
-        <v>395747.3876370428</v>
+        <v>395747.3876370429</v>
       </c>
       <c r="D6" t="n">
-        <v>395747.3876370427</v>
+        <v>395747.3876370429</v>
       </c>
       <c r="E6" t="n">
-        <v>146259.3729621743</v>
+        <v>146259.3729621737</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.8347695293</v>
+        <v>471671.834769529</v>
       </c>
       <c r="G6" t="n">
+        <v>471671.8347695291</v>
+      </c>
+      <c r="H6" t="n">
+        <v>471671.8347695289</v>
+      </c>
+      <c r="I6" t="n">
         <v>471671.8347695292</v>
-      </c>
-      <c r="H6" t="n">
-        <v>471671.8347695291</v>
-      </c>
-      <c r="I6" t="n">
-        <v>471671.834769529</v>
       </c>
       <c r="J6" t="n">
         <v>254140.6323722515</v>
       </c>
       <c r="K6" t="n">
-        <v>471671.8347695291</v>
+        <v>471671.834769529</v>
       </c>
       <c r="L6" t="n">
-        <v>471671.8347695292</v>
+        <v>471671.8347695289</v>
       </c>
       <c r="M6" t="n">
-        <v>386616.8068340173</v>
+        <v>386616.8068340174</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.8347695292</v>
+        <v>471671.834769529</v>
       </c>
       <c r="O6" t="n">
         <v>471671.8347695292</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.8347695291</v>
+        <v>471671.8347695292</v>
       </c>
     </row>
   </sheetData>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.255751353300823</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>198.2808315333505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.67723662720314</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>162.5259188158159</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>13.65280911093191</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>287.9210818608651</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>190.5123980043803</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.6205372139425</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>55.47806595232223</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>258.2608625746003</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.887436416874237</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>20.33521828539733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28266,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-4.580856521693805e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28378,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-8.620442291030799e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29001,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-4.580856521693805e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29217,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-4.580856521693805e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518521</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>232.7599890885205</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>363.537151478685</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33664,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>699.0496615458086</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34451,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167419021</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066209</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342406</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294884</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>556.4534171013642</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>220.9409070342396</v>
       </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2142155.826532874</v>
+        <v>2138143.216518881</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103634</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>39.32117841962513</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.93823639100921</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>89.550802603786</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>61.31988685654797</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>150.9601371840612</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>96.01060033221076</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>225.750889292396</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>111.4702381038687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>231.8024250384307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376152</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703231</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631857009</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.95900124023849</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>72.26558381699969</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>71.05846343488149</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.24118421664247</v>
+        <v>58.24570521548653</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699773</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>15.09910835322263</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>36.74735985928049</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>92.4155229904888</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>174.6859374605332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>108.3106907504111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>213.5398874823013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2342.888901953459</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1973.926385013047</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1615.660686406297</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.872433808053</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>818.8865290184451</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>403.8140788634416</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>106.2304784722088</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993393</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>3119.628073993393</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2729.488742017581</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>720.5449729949386</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="C4" t="n">
-        <v>720.5449729949386</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>324.6703092229048</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>156.9674725976238</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>156.9674725976238</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3375521384687</v>
+        <v>874.0013006945851</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.5449729949386</v>
+        <v>653.208721551055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2362.804761797675</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4658,40 +4658,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1005.010447216633</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>777.020896318616</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>777.020896318616</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.379186075721</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1314.217360296482</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1024.800190259521</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>796.8106393615039</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>796.8106393615039</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429849</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000629</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876693</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052762</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F16" t="n">
-        <v>432.9862109052762</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G16" t="n">
-        <v>265.7901116201561</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>124.0782804623542</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5557,10 +5557,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1089.575996120531</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>920.6398131926237</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>770.5231737802879</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>622.6100801978948</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>475.7201326999844</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>308.5240334148644</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>166.8122022570625</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U19" t="n">
-        <v>2264.108249235165</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V19" t="n">
-        <v>2009.423761029278</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.006590992318</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1492.0170400943</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>1271.22446095077</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>2991.228530604269</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>2841.111891191933</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>2693.19879760954</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>2546.308850111629</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024112</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.68673186631</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.68673186631</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296634</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822172</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998113</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729147</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389156</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098141</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671699</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038299</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797701</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713837</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>803.2707707770323</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>653.1541313646966</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>505.2410377823035</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>358.3510902843931</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>191.154990999273</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2103.713532365861</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1814.638305710059</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1559.953817504172</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1270.536647467212</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1042.547096569194</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>821.7545174256642</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429802</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7420,7 +7420,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.955258982919</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>889.0190760550122</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1688.385853854706</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.396302956689</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1239.603723813159</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>955.2822768769995</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891697</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194579</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393517</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>51.30683507832703</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9.000252501565825</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>146.3469868924068</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.28295407562638</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>63.36835372229157</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>45.84813034729837</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1956044930012</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>130.4994612393473</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>124.9899273367995</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>77.45170586329479</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>38.59775584152675</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>853156.7494461247</v>
+        <v>853156.7494461248</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174902</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174902</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174902</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551177</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316945</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="D4" t="n">
-        <v>91573.95495316946</v>
-      </c>
       <c r="E4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905501</v>
+        <v>-932997.3580905495</v>
       </c>
       <c r="C6" t="n">
-        <v>395747.3876370429</v>
+        <v>395747.3876370423</v>
       </c>
       <c r="D6" t="n">
-        <v>395747.3876370429</v>
+        <v>395747.3876370427</v>
       </c>
       <c r="E6" t="n">
-        <v>146259.3729621737</v>
+        <v>145911.9937078171</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.834769529</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="G6" t="n">
-        <v>471671.8347695291</v>
+        <v>471324.4555151724</v>
       </c>
       <c r="H6" t="n">
-        <v>471671.8347695289</v>
+        <v>471324.4555151719</v>
       </c>
       <c r="I6" t="n">
-        <v>471671.8347695292</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="J6" t="n">
-        <v>254140.6323722515</v>
+        <v>253793.2531178944</v>
       </c>
       <c r="K6" t="n">
-        <v>471671.834769529</v>
+        <v>471324.4555151722</v>
       </c>
       <c r="L6" t="n">
-        <v>471671.8347695289</v>
+        <v>471324.455515172</v>
       </c>
       <c r="M6" t="n">
-        <v>386616.8068340174</v>
+        <v>386269.4275796604</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.834769529</v>
+        <v>471324.455515172</v>
       </c>
       <c r="O6" t="n">
-        <v>471671.8347695292</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.8347695292</v>
+        <v>471324.4555151723</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>306.4732379112255</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.255751353300823</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>53.67723662720314</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.801617806052121</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>287.9210818608651</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>235.2778014719924</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>190.5123980043803</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>258.2608625746003</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>20.33521828539733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.580856521693805e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-3.197455209038191e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.620442291030799e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-4.580856521693805e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-4.580856521693805e-12</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>287.9685048518521</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,16 +33022,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,34 +33259,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,19 +33505,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>150.1270658774932</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010411</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096304</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>376.3054212373395</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2138143.216518881</v>
+        <v>2139903.746821667</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>84.57366324851014</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>89.550802603786</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376571</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.9601371840612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>120.7389995830104</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>225.750889292396</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703231</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>115.7228684476132</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833367</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284017</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>58.24570521548653</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669526</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>100.5858322992708</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.7871326503972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703208</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>151.0612007923062</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943747</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.77673900139</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.5602567208152</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="C4" t="n">
-        <v>471.5602567208152</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D4" t="n">
-        <v>471.5602567208152</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>471.5602567208152</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>324.6703092229048</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>156.9674725976238</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9674725976238</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798489</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592602</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592602</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X4" t="n">
-        <v>874.0013006945851</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y4" t="n">
-        <v>653.208721551055</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792694</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2884.252265792694</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1805.335962651109</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1550.651474445222</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926375</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4883,22 +4883,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400676</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121607</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121607</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121607</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121607</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510505</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611855</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138374</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703073</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400667</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121598</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998241</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998241</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998241</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138365</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703064</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300688</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>376.4492432300688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>376.4492432300688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6232,43 +6232,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277359</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>215.8238677453428</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>215.8238677453428</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194579</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>101.6825818796751</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393517</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>34.97276993489101</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>107.2784330767823</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>63.36835372229152</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>45.84813034729837</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>44.73700564187165</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194808</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>67.52345255978864</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>853156.7494461248</v>
+        <v>853156.7494461247</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174902</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174902</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174902</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174902</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="16">
@@ -26322,37 +26322,37 @@
         <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551185</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.004758082241414e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26450,10 +26450,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905495</v>
+        <v>-932997.3580905497</v>
       </c>
       <c r="C6" t="n">
-        <v>395747.3876370423</v>
+        <v>395747.3876370428</v>
       </c>
       <c r="D6" t="n">
         <v>395747.3876370427</v>
       </c>
       <c r="E6" t="n">
-        <v>145911.9937078171</v>
+        <v>146224.6350367378</v>
       </c>
       <c r="F6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="G6" t="n">
-        <v>471324.4555151724</v>
+        <v>471637.0968440939</v>
       </c>
       <c r="H6" t="n">
-        <v>471324.4555151719</v>
+        <v>471637.0968440936</v>
       </c>
       <c r="I6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440936</v>
       </c>
       <c r="J6" t="n">
-        <v>253793.2531178944</v>
+        <v>254105.8944468159</v>
       </c>
       <c r="K6" t="n">
-        <v>471324.4555151722</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="L6" t="n">
-        <v>471324.455515172</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="M6" t="n">
-        <v>386269.4275796604</v>
+        <v>386582.0689085815</v>
       </c>
       <c r="N6" t="n">
-        <v>471324.455515172</v>
+        <v>471637.0968440933</v>
       </c>
       <c r="O6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="P6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440935</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.005947602801767e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112255</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>82.67315785011769</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.801617806052121</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333504</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.2778014719924</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>165.4728386226025</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-5.846946800072464e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-5.005947602801767e-14</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010411</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096304</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899031</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998925</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
